--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="98">
   <si>
     <t>ModuleName</t>
   </si>
@@ -168,9 +168,6 @@
     <t>NotifyTemplate_Msg</t>
   </si>
   <si>
-    <t xml:space="preserve"> ET_OOFS_Notify </t>
-  </si>
-  <si>
     <t>RelatedModuleText</t>
   </si>
   <si>
@@ -255,34 +252,77 @@
     <t>00</t>
   </si>
   <si>
+    <t>tskNT_ExecuteTask_DTBeforeMinutes</t>
+  </si>
+  <si>
+    <t>10-05-2024</t>
+  </si>
+  <si>
+    <t>13-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00 AM</t>
+  </si>
+  <si>
+    <t>ET278</t>
+  </si>
+  <si>
+    <t>Every time the record is save</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ET_ETRS_Notify </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>wf_ET_ETRS_Notifications</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_DTBeforeMinutes</t>
-  </si>
-  <si>
-    <t>10-05-2024</t>
-  </si>
-  <si>
-    <t>13-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>05:00:00 AM</t>
-  </si>
-  <si>
-    <t>ET278</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wf_ET_ETRS_Notifications</t>
-  </si>
-  <si>
-    <t>Every time the record is save</t>
+    <t>27-05-2024</t>
+  </si>
+  <si>
+    <t>30-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET409</t>
+  </si>
+  <si>
+    <t>ET410</t>
+  </si>
+  <si>
+    <t>30-05-2024 06:00:00 PM</t>
+  </si>
+  <si>
+    <t>06:00:00 PM</t>
+  </si>
+  <si>
+    <t>30-05-2024 07:00:00 PM</t>
+  </si>
+  <si>
+    <t>07:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET413</t>
+  </si>
+  <si>
+    <t>30-05-2024 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>08:00:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,43 +680,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -777,16 +817,16 @@
         <v>47</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -794,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -820,8 +860,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="1">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -829,11 +869,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -848,7 +888,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
@@ -860,16 +900,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -878,22 +918,22 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="AG2" t="s" s="1">
+        <v>95</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -909,30 +949,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1033,16 +1073,16 @@
         <v>47</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1050,7 +1090,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1062,22 +1102,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1085,17 +1125,17 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1104,10 +1144,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1116,16 +1156,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1136,19 +1176,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>70</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1164,20 +1204,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1278,16 +1318,16 @@
         <v>47</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1295,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1307,22 +1347,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1330,17 +1370,17 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1349,10 +1389,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1361,16 +1401,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1381,22 +1421,22 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>71</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1412,48 +1452,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="35.08984375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1554,16 +1594,16 @@
         <v>47</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1571,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1583,22 +1623,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>69</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1606,17 +1646,17 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+      <c r="N2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1625,10 +1665,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1637,16 +1677,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1657,19 +1697,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>71</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="107">
   <si>
     <t>ModuleName</t>
   </si>
@@ -316,6 +316,33 @@
   </si>
   <si>
     <t>08:00:00 PM</t>
+  </si>
+  <si>
+    <t>28-05-2024</t>
+  </si>
+  <si>
+    <t>31-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET416</t>
+  </si>
+  <si>
+    <t>31-05-2024 06:00:00 PM</t>
+  </si>
+  <si>
+    <t>06:00:00 AM</t>
+  </si>
+  <si>
+    <t>31-05-2024 07:00:00 PM</t>
+  </si>
+  <si>
+    <t>07:00:00 AM</t>
+  </si>
+  <si>
+    <t>31-05-2024 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>08:00:00 AM</t>
   </si>
 </sst>
 </file>
@@ -861,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -870,10 +897,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -921,7 +948,7 @@
         <v>82</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -1117,7 +1144,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1126,10 +1153,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1362,7 +1389,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1371,10 +1398,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1638,7 +1665,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1647,10 +1674,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -225,15 +225,6 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:29:49 PM</t>
-  </si>
-  <si>
     <t>ET163</t>
   </si>
   <si>
@@ -252,72 +243,21 @@
     <t>00</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_DTBeforeMinutes</t>
-  </si>
-  <si>
-    <t>10-05-2024</t>
-  </si>
-  <si>
-    <t>13-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
     <t>05:00:00 AM</t>
   </si>
   <si>
-    <t>ET278</t>
-  </si>
-  <si>
     <t>Every time the record is save</t>
   </si>
   <si>
     <t xml:space="preserve"> ET_ETRS_Notify </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>wf_ET_ETRS_Notifications</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>27-05-2024</t>
-  </si>
-  <si>
-    <t>30-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET409</t>
-  </si>
-  <si>
-    <t>ET410</t>
-  </si>
-  <si>
-    <t>30-05-2024 06:00:00 PM</t>
-  </si>
-  <si>
-    <t>06:00:00 PM</t>
-  </si>
-  <si>
-    <t>30-05-2024 07:00:00 PM</t>
-  </si>
-  <si>
-    <t>07:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET413</t>
-  </si>
-  <si>
-    <t>30-05-2024 08:00:00 PM</t>
-  </si>
-  <si>
-    <t>08:00:00 PM</t>
-  </si>
-  <si>
     <t>28-05-2024</t>
   </si>
   <si>
@@ -343,13 +283,15 @@
   </si>
   <si>
     <t>08:00:00 AM</t>
+  </si>
+  <si>
+    <t>ET_DTBeforeMinutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,49 +643,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
-    <col min="37" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -847,13 +789,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -861,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -887,8 +829,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>98</v>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -896,11 +838,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>99</v>
-      </c>
-      <c r="O2" t="s" s="1">
+      <c r="N2" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -930,13 +872,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -945,22 +887,22 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>100</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -976,30 +918,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1103,13 +1045,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1117,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1143,8 +1085,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>98</v>
+      <c r="K2" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1152,11 +1094,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>102</v>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1186,13 +1128,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1203,19 +1145,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
       </c>
       <c r="AH2" s="7">
         <v>6</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1231,20 +1173,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1348,13 +1290,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1362,7 +1304,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1388,8 +1330,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>98</v>
+      <c r="K2" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1397,11 +1339,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>104</v>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1431,13 +1373,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1448,22 +1390,22 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
       </c>
       <c r="AH2" s="7">
         <v>7</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1479,48 +1421,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="35.08984375"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1624,13 +1566,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1638,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1664,8 +1606,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>98</v>
+      <c r="K2" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1673,11 +1615,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>106</v>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1707,13 +1649,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1724,19 +1666,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
       </c>
       <c r="AH2" s="7">
         <v>8</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTBeforeMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
   <si>
     <t>ModuleName</t>
   </si>
@@ -243,9 +243,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>05:00:00 AM</t>
-  </si>
-  <si>
     <t>Every time the record is save</t>
   </si>
   <si>
@@ -258,40 +255,35 @@
     <t>1</t>
   </si>
   <si>
-    <t>28-05-2024</t>
-  </si>
-  <si>
-    <t>31-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
     <t>ET416</t>
   </si>
   <si>
-    <t>31-05-2024 06:00:00 PM</t>
-  </si>
-  <si>
-    <t>06:00:00 AM</t>
-  </si>
-  <si>
-    <t>31-05-2024 07:00:00 PM</t>
-  </si>
-  <si>
-    <t>07:00:00 AM</t>
-  </si>
-  <si>
-    <t>31-05-2024 08:00:00 PM</t>
-  </si>
-  <si>
-    <t>08:00:00 AM</t>
-  </si>
-  <si>
     <t>ET_DTBeforeMinutes</t>
+  </si>
+  <si>
+    <t>10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00 AM</t>
+  </si>
+  <si>
+    <t>24-07-2024</t>
+  </si>
+  <si>
+    <t>27-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2790</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,49 +635,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -803,7 +795,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -829,8 +821,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -838,11 +830,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>73</v>
+      <c r="N2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -872,13 +864,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -887,13 +879,13 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="1">
+        <v>84</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
@@ -901,8 +893,8 @@
       <c r="AJ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>77</v>
+      <c r="AK2" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -918,30 +910,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1059,7 +1051,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1085,8 +1077,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1094,11 +1086,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
         <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1128,13 +1120,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1145,13 +1137,13 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="0">
         <v>67</v>
       </c>
       <c r="AH2" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
@@ -1173,20 +1165,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1304,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1330,8 +1322,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1339,11 +1331,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1373,13 +1365,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1390,13 +1382,13 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
@@ -1421,48 +1413,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="35.08984375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1580,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1606,8 +1598,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>78</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1615,11 +1607,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1649,13 +1641,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1666,13 +1658,13 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
